--- a/data/trans_bre/CONS_TIR-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,75%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 4,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 0,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>209,99%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,62; 3,2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 6,8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 3,86</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-68,06; 413,6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,41; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>255,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>336,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>241,64%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,71; 6,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 7,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>0,76; 5,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,57; 778,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,38; 1531,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,7; 1125,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>707,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>115,48%</t>
+          <t>593,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>131,18%</t>
+          <t>408,98%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,63</t>
+          <t>3,51; 7,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,05</t>
+          <t>5,05; 12,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,18</t>
+          <t>3,73; 9,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>237,44; 2241,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,79; —</t>
+          <t>148,2; 2458,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>125,24; 1243,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>367,34%</t>
+          <t>610,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>797,67%</t>
+          <t>994,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>147,32%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,32</t>
+          <t>5,78; 10,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,9</t>
+          <t>10,11; 16,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,41</t>
+          <t>1,05; 7,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,74; —</t>
+          <t>239,51; 1388,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>356,62; 2794,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-49,25; 533,24</t>
+          <t>16,84; 399,55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>49,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>346,17%</t>
+          <t>543,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>715,87%</t>
+          <t>3150,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>355,38%</t>
+          <t>521,05%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,14</t>
+          <t>7,41; 12,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,18</t>
+          <t>7,47; 80,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,23</t>
+          <t>6,8; 13,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,21; 1871,99</t>
+          <t>266,5; 1153,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>231,31; 3321,91</t>
+          <t>406,23; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>98,11; 1025,89</t>
+          <t>239,91; 1097,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>563,0%</t>
+          <t>459,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>506,62%</t>
+          <t>338,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>367,47%</t>
+          <t>215,96%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,49</t>
+          <t>5,37; 10,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,75; 10,71</t>
+          <t>4,4; 11,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,81</t>
+          <t>3,9; 10,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>178,93; 1572,37</t>
+          <t>165,34; 1285,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>206,08; 1251,88</t>
+          <t>73,17; 1035,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>134,84; 910,91</t>
+          <t>77,85; 453,72</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>15,29</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>137,17%</t>
+          <t>452,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>732,24%</t>
+          <t>1101,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>548,7%</t>
+          <t>273,26%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,61</t>
+          <t>5,09; 6,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,15; 13,91</t>
+          <t>6,42; 38,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,41</t>
+          <t>3,65; 5,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,5; 401,77</t>
+          <t>310,05; 663,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>373,63; 1665,37</t>
+          <t>410,14; 3532,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>219,33; 1213,37</t>
+          <t>167,38; 399,92</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>9,56</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>27,28</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>9,41</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>478,17%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1175,35%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>415,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>6,68; 12,7</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 62,47</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 11,99</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>208,26; 1049,21</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>314,72; 5408,95</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>215,53; 784,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>7,56</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>7,89</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>198,78%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>347,89%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>434,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 10,04</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 10,4</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 9,99</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>81,86; 477,04</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>132,25; 858,32</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>158,57; 963,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,15</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>9,63</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,02</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>286,26%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>684,62%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>416,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>4,12; 6,24</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 19,34</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>4,33; 5,73</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>190,0; 416,14</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>413,61; 1580,59</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>297,33; 584,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_TIR-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>133,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,91</t>
+          <t>-0,36; 1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,86</t>
+          <t>-4,89; 5,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>49,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,2</t>
+          <t>-1,24; 3,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,8</t>
+          <t>1,47; 6,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,06; 413,6</t>
+          <t>-57,32; 460,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>255,07%</t>
+          <t>267,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,06</t>
+          <t>1,89; 6,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,22</t>
+          <t>2,26; 7,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,57; 778,29</t>
+          <t>58,42; 733,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,38; 1531,92</t>
+          <t>55,42; 1595,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>707,27%</t>
+          <t>474,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,3</t>
+          <t>2,45; 5,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 12,41</t>
+          <t>4,84; 12,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>237,44; 2241,98</t>
+          <t>124,02; 1560,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>148,2; 2458,33</t>
+          <t>152,81; 2429,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>610,59%</t>
+          <t>561,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,67</t>
+          <t>4,91; 9,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,11; 16,14</t>
+          <t>9,84; 16,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>239,51; 1388,88</t>
+          <t>223,57; 1255,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>356,62; 2794,1</t>
+          <t>361,68; 3019,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>8,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>543,26%</t>
+          <t>324,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,84</t>
+          <t>5,78; 11,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 80,03</t>
+          <t>7,92; 83,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>266,5; 1153,58</t>
+          <t>119,83; 673,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>406,23; —</t>
+          <t>452,22; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>459,53%</t>
+          <t>580,32%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,08</t>
+          <t>5,82; 10,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,76</t>
+          <t>4,26; 11,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>165,34; 1285,15</t>
+          <t>196,86; 1429,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>73,17; 1035,97</t>
+          <t>75,69; 1022,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>452,82%</t>
+          <t>395,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,09; 6,81</t>
+          <t>4,49; 6,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,42; 38,75</t>
+          <t>6,4; 41,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>310,05; 663,16</t>
+          <t>268,21; 582,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>410,14; 3532,85</t>
+          <t>409,12; 4008,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_TIR-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>65,44%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-64,75%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>133,07%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>21,45%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-64,75%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,97; 6,57</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 0,3</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,36; 1,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 5,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 0,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,84</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>209,99%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>49,69%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>209,99%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,43; 7,63</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 3,86</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-1,24; 3,57</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 6,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 3,86</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-64,41; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-57,32; 460,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-64,41; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,89</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>405,98%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>241,64%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>267,93%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>336,71%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>241,64%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,51; 7,19</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 5,33</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,89; 6,3</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 7,29</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 5,33</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>85,24; 1838,79</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 1125,77</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>58,42; 733,7</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>55,42; 1595,81</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 1125,77</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,97</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,93</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,59</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,17</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>313,13%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>408,98%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>474,64%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>593,01%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>408,98%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,49; 8,36</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 9,55</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,45; 5,72</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 12,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 9,55</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>93,44; 875,34</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>125,24; 1243,17</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>124,02; 1560,34</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>152,81; 2429,89</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>125,24; 1243,17</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>12,61</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>6,95</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,79</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,31</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>815,84%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>147,32%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>561,07%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>994,75%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>147,32%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>9,59; 15,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 7,57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>4,91; 9,13</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,84; 16,32</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 7,57</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>307,92; 2492,45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16,84; 399,55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>223,57; 1255,18</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>361,68; 3019,31</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>16,84; 399,55</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9,81</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9,76</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>8,71</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>49,38</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,76</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>642,81%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>521,05%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>324,82%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3150,02%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>521,05%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>6,69; 12,96</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6,8; 13,19</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>5,78; 11,71</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,92; 83,84</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 13,19</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>228,72; 2110,39</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>239,91; 1097,62</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>119,83; 673,61</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>452,22; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>239,91; 1097,62</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7,31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>8,19</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>8,01</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>299,59%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>215,96%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>580,32%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>338,29%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>215,96%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,02; 11,5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 10,8</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>5,82; 10,58</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 11,89</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 10,8</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>70,08; 972,2</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>77,85; 453,72</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>196,86; 1429,72</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>75,69; 1022,57</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>77,85; 453,72</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>6,9</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,71</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>5,36</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>15,29</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4,71</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>459,61%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>273,26%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>395,64%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>1101,5%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>273,26%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>5,72; 8,13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 5,8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>4,49; 6,18</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>6,4; 41,63</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>3,65; 5,8</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>277,37; 740,2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>167,38; 399,92</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>268,21; 582,12</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>409,12; 4008,5</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>167,38; 399,92</t>
         </is>
       </c>
     </row>
